--- a/data/hall_of_fame.xlsx
+++ b/data/hall_of_fame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AE755D-5A5E-0E4F-841C-9C62595B1CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E446D6DA-225E-CC4E-9E28-3993B0F472E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11040" yWindow="2080" windowWidth="28240" windowHeight="17240" xr2:uid="{C59B5DEB-910C-0448-9E57-21BC4335F9F9}"/>
   </bookViews>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E90DA55-93C2-CB47-93A0-8C0C260864AC}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,6 +613,9 @@
       <c r="B13" s="1">
         <v>45852</v>
       </c>
+      <c r="C13" s="1">
+        <v>45866</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">

--- a/data/hall_of_fame.xlsx
+++ b/data/hall_of_fame.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E446D6DA-225E-CC4E-9E28-3993B0F472E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2D55E0-BA17-AB42-AC90-BD7DE777CE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="2080" windowWidth="28240" windowHeight="17240" xr2:uid="{C59B5DEB-910C-0448-9E57-21BC4335F9F9}"/>
+    <workbookView xWindow="10160" yWindow="2080" windowWidth="28240" windowHeight="17240" xr2:uid="{C59B5DEB-910C-0448-9E57-21BC4335F9F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>thema</t>
   </si>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>Multiple lineare Regression</t>
+  </si>
+  <si>
+    <t>Mediatoranalyse</t>
+  </si>
+  <si>
+    <t>Generierung von Daten</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
 </sst>
 </file>
@@ -462,183 +477,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E90DA55-93C2-CB47-93A0-8C0C260864AC}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1">
         <v>45667</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>45686</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1">
         <v>45688</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>45710</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
         <v>45715</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>45720</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
         <v>45777</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>45810</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1">
         <v>45711</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>45777</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
         <v>45743</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>45837</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
         <v>45822</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>45834</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
         <v>45779</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>45816</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
         <v>45816</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>45819</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
         <v>45815</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>45822</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
         <v>45829</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>45833</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
         <v>45852</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>45866</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
         <v>45848</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
         <v>45840</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
         <v>45866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45887</v>
       </c>
     </row>
   </sheetData>

--- a/data/hall_of_fame.xlsx
+++ b/data/hall_of_fame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2D55E0-BA17-AB42-AC90-BD7DE777CE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC55FF21-6D68-414E-86AB-C327FA3ED1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10160" yWindow="2080" windowWidth="28240" windowHeight="17240" xr2:uid="{C59B5DEB-910C-0448-9E57-21BC4335F9F9}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,6 +704,9 @@
       <c r="C16" s="1">
         <v>45866</v>
       </c>
+      <c r="D16" s="1">
+        <v>45887</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">

--- a/data/hall_of_fame.xlsx
+++ b/data/hall_of_fame.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC55FF21-6D68-414E-86AB-C327FA3ED1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13C3A0F-49F3-9C42-BF9A-14ED13B0CE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10160" yWindow="2080" windowWidth="28240" windowHeight="17240" xr2:uid="{C59B5DEB-910C-0448-9E57-21BC4335F9F9}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,7 +708,7 @@
         <v>45887</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -719,7 +719,7 @@
         <v>45880</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -728,6 +728,9 @@
       </c>
       <c r="C18" s="1">
         <v>45887</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45924</v>
       </c>
     </row>
   </sheetData>

--- a/data/hall_of_fame.xlsx
+++ b/data/hall_of_fame.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13C3A0F-49F3-9C42-BF9A-14ED13B0CE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC668B84-8135-0243-886D-2208FABAE128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10160" yWindow="2080" windowWidth="28240" windowHeight="17240" xr2:uid="{C59B5DEB-910C-0448-9E57-21BC4335F9F9}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,6 +693,9 @@
       <c r="C15" s="1">
         <v>45840</v>
       </c>
+      <c r="D15" s="1">
+        <v>45951</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">

--- a/data/hall_of_fame.xlsx
+++ b/data/hall_of_fame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC668B84-8135-0243-886D-2208FABAE128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5765CBA5-B362-8544-AA56-5DA4D48370A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10160" yWindow="2080" windowWidth="28240" windowHeight="17240" xr2:uid="{C59B5DEB-910C-0448-9E57-21BC4335F9F9}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,7 +680,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="1">
-        <v>45848</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">

--- a/data/hall_of_fame.xlsx
+++ b/data/hall_of_fame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5765CBA5-B362-8544-AA56-5DA4D48370A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6F975D-1DEA-164F-A60C-F085977A8FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10160" yWindow="2080" windowWidth="28240" windowHeight="17240" xr2:uid="{C59B5DEB-910C-0448-9E57-21BC4335F9F9}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,7 +680,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="1">
-        <v>45951</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">

--- a/data/hall_of_fame.xlsx
+++ b/data/hall_of_fame.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6F975D-1DEA-164F-A60C-F085977A8FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7C7020-5725-0041-9DD9-7DD5B214C60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10160" yWindow="2080" windowWidth="28240" windowHeight="17240" xr2:uid="{C59B5DEB-910C-0448-9E57-21BC4335F9F9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>thema</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Multiple lineare Regression</t>
-  </si>
-  <si>
-    <t>Mediatoranalyse</t>
   </si>
   <si>
     <t>Generierung von Daten</t>
@@ -477,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E90DA55-93C2-CB47-93A0-8C0C260864AC}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -509,7 +506,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>45667</v>
@@ -523,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>45688</v>
@@ -537,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>45715</v>
@@ -551,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>45777</v>
@@ -565,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>45711</v>
@@ -579,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>45743</v>
@@ -593,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>45822</v>
@@ -607,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>45779</v>
@@ -621,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>45816</v>
@@ -635,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>45815</v>
@@ -649,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>45829</v>
@@ -663,7 +660,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>45852</v>
@@ -677,7 +674,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <v>45944</v>
@@ -688,7 +685,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
         <v>45840</v>
@@ -702,7 +699,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
         <v>45866</v>
@@ -716,23 +713,12 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>45880</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1">
         <v>45887</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D17" s="1">
         <v>45924</v>
       </c>
     </row>

--- a/data/hall_of_fame.xlsx
+++ b/data/hall_of_fame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7C7020-5725-0041-9DD9-7DD5B214C60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF0D380-56C7-814A-8187-BACE7DBC3F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10160" yWindow="2080" windowWidth="28240" windowHeight="17240" xr2:uid="{C59B5DEB-910C-0448-9E57-21BC4335F9F9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>thema</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>1.0</t>
+  </si>
+  <si>
+    <t>Spielecke aufräumen</t>
   </si>
 </sst>
 </file>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E90DA55-93C2-CB47-93A0-8C0C260864AC}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,6 +725,17 @@
         <v>45924</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45960</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/hall_of_fame.xlsx
+++ b/data/hall_of_fame.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF0D380-56C7-814A-8187-BACE7DBC3F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9769F203-BAD3-A448-9B20-335B5D6A9065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10160" yWindow="2080" windowWidth="28240" windowHeight="17240" xr2:uid="{C59B5DEB-910C-0448-9E57-21BC4335F9F9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -480,7 +480,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,7 +680,10 @@
         <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>45944</v>
+        <v>45848</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45968</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -734,6 +737,9 @@
       </c>
       <c r="C18" s="1">
         <v>45960</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45966</v>
       </c>
     </row>
   </sheetData>

--- a/data/hall_of_fame.xlsx
+++ b/data/hall_of_fame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9769F203-BAD3-A448-9B20-335B5D6A9065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBFDA05-DEEE-9C4A-B9F0-2CA93EF55415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10160" yWindow="2080" windowWidth="28240" windowHeight="17240" xr2:uid="{C59B5DEB-910C-0448-9E57-21BC4335F9F9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>thema</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Spielecke aufräumen</t>
+  </si>
+  <si>
+    <t>Ein ggplot Cookbook</t>
   </si>
 </sst>
 </file>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E90DA55-93C2-CB47-93A0-8C0C260864AC}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,6 +745,17 @@
         <v>45966</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45968</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/hall_of_fame.xlsx
+++ b/data/hall_of_fame.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBFDA05-DEEE-9C4A-B9F0-2CA93EF55415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA1EE0A-9AC9-C648-919F-736E7A1FB96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10160" yWindow="2080" windowWidth="28240" windowHeight="17240" xr2:uid="{C59B5DEB-910C-0448-9E57-21BC4335F9F9}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,7 +753,10 @@
         <v>21</v>
       </c>
       <c r="C19" s="1">
-        <v>45968</v>
+        <v>45798</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45976</v>
       </c>
     </row>
   </sheetData>
